--- a/MISLAND/data/summary_table_tc.xlsx
+++ b/MISLAND/data/summary_table_tc.xlsx
@@ -1,44 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\LandDegradation\trends.earth\LDMP\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\trends.earth\MISLAND\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B074C28B-E63B-41BB-B693-8AD05E5E51A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9741A721-C3DC-43EB-8D7E-88D7A96C856D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17070" yWindow="1980" windowWidth="19200" windowHeight="17670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total Carbon Summary Table" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>The boundaries, names, and designations used in this report do not imply official endorsement or acceptance by Conservation International Foundation, or its partner organizations and contributors.  This report is available under the terms of Creative Commons Attribution 4.0 International License (CC BY 4.0).</t>
-  </si>
-  <si>
-    <t>For more information on Trends.Earth, see http://trends.earth, or contact the team at trends.earth@conservation.org.</t>
-  </si>
-  <si>
-    <t>Trends.Earth carbon change summary table</t>
   </si>
   <si>
     <t>Year</t>
@@ -152,15 +136,18 @@
   <si>
     <t>Land cover change summary</t>
   </si>
+  <si>
+    <t>Misland carbon change summary table</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -327,7 +314,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -361,7 +348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -385,7 +372,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -402,7 +389,7 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -421,7 +408,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -435,6 +422,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -461,9 +451,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -800,21 +787,23 @@
   </sheetPr>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:F51"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="18.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="14" customWidth="1"/>
-    <col min="5" max="6" width="18.7109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="2" width="18.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="14" customWidth="1"/>
+    <col min="5" max="6" width="18.6640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
@@ -822,49 +811,49 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:6" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-    </row>
-    <row r="4" spans="1:6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:6" s="45" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-    </row>
-    <row r="7" spans="1:6" s="16" customFormat="1" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="16" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+    </row>
+    <row r="4" spans="1:6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:6" s="45" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+    </row>
+    <row r="7" spans="1:6" s="16" customFormat="1" ht="29.4" x14ac:dyDescent="0.35">
       <c r="A7" s="17"/>
       <c r="B7" s="18"/>
       <c r="C7" s="10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7" s="18"/>
     </row>
-    <row r="8" spans="1:6" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="31" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" s="43"/>
       <c r="D8" s="34" t="str">
@@ -873,10 +862,10 @@
       </c>
       <c r="E8" s="38"/>
     </row>
-    <row r="9" spans="1:6" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="34" t="str">
@@ -885,10 +874,10 @@
       </c>
       <c r="E9" s="39"/>
     </row>
-    <row r="10" spans="1:6" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="31" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="34" t="str">
@@ -897,10 +886,10 @@
       </c>
       <c r="E10" s="39"/>
     </row>
-    <row r="11" spans="1:6" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="34" t="str">
@@ -909,10 +898,10 @@
       </c>
       <c r="E11" s="39"/>
     </row>
-    <row r="12" spans="1:6" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="32">
         <f>SUM(C8:C11)</f>
@@ -924,47 +913,47 @@
       </c>
       <c r="E12" s="32"/>
     </row>
-    <row r="13" spans="1:6" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
       <c r="D13" s="24"/>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:6" s="44" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-    </row>
-    <row r="15" spans="1:6" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="44" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+    </row>
+    <row r="15" spans="1:6" s="8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="31"/>
       <c r="C15" s="31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15" s="42"/>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="1:6" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="31"/>
       <c r="C16" s="31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D16" s="42"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
-      <c r="B17" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="50"/>
+      <c r="B17" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="51"/>
       <c r="D17" s="36">
         <f>SUM(B24:B44)</f>
         <v>0</v>
@@ -972,44 +961,44 @@
       <c r="E17" s="23"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:8" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="20"/>
-      <c r="B18" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="54"/>
+      <c r="B18" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="55"/>
       <c r="D18" s="36">
         <f>SUM(D24:D44)</f>
         <v>0</v>
       </c>
       <c r="E18" s="23"/>
     </row>
-    <row r="19" spans="1:8" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="20"/>
-      <c r="B19" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="50"/>
+      <c r="B19" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="51"/>
       <c r="D19" s="36">
         <f>SUM(F24:F44)</f>
         <v>0</v>
       </c>
       <c r="E19" s="23"/>
     </row>
-    <row r="20" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:8" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-    </row>
-    <row r="22" spans="1:8" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A21" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+    </row>
+    <row r="22" spans="1:8" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="11"/>
       <c r="C22" s="12"/>
@@ -1019,32 +1008,32 @@
     </row>
     <row r="23" spans="1:8" s="13" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="25" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B23" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>13</v>
-      </c>
       <c r="E23" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="26"/>
       <c r="B24" s="30"/>
       <c r="C24" s="30">
         <f>C8-B24</f>
         <v>0</v>
       </c>
-      <c r="D24" s="56"/>
+      <c r="D24" s="46"/>
       <c r="E24" s="30">
         <f>E8-D24</f>
         <v>0</v>
@@ -1055,14 +1044,14 @@
       </c>
       <c r="G24" s="37"/>
     </row>
-    <row r="25" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="26"/>
       <c r="B25" s="30"/>
       <c r="C25" s="30" t="str">
         <f>IF(ISBLANK(B25),"",C24-B25)</f>
         <v/>
       </c>
-      <c r="D25" s="56"/>
+      <c r="D25" s="46"/>
       <c r="E25" s="30" t="str">
         <f>IF(ISBLANK(D25),"",E24-D25)</f>
         <v/>
@@ -1073,14 +1062,14 @@
       </c>
       <c r="H25" s="27"/>
     </row>
-    <row r="26" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="26"/>
       <c r="B26" s="30"/>
       <c r="C26" s="30" t="str">
         <f t="shared" ref="C26:C44" si="1">IF(ISBLANK(B26),"",C25-B26)</f>
         <v/>
       </c>
-      <c r="D26" s="56"/>
+      <c r="D26" s="46"/>
       <c r="E26" s="30" t="str">
         <f t="shared" ref="E26:E44" si="2">IF(ISBLANK(D26),"",E25-D26)</f>
         <v/>
@@ -1092,14 +1081,14 @@
       <c r="G26" s="29"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="26"/>
       <c r="B27" s="30"/>
       <c r="C27" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D27" s="56"/>
+      <c r="D27" s="46"/>
       <c r="E27" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -1110,14 +1099,14 @@
       </c>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="26"/>
       <c r="B28" s="30"/>
       <c r="C28" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D28" s="56"/>
+      <c r="D28" s="46"/>
       <c r="E28" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -1128,14 +1117,14 @@
       </c>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="26"/>
       <c r="B29" s="30"/>
       <c r="C29" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D29" s="56"/>
+      <c r="D29" s="46"/>
       <c r="E29" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -1146,14 +1135,14 @@
       </c>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="26"/>
       <c r="B30" s="30"/>
       <c r="C30" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D30" s="56"/>
+      <c r="D30" s="46"/>
       <c r="E30" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -1164,14 +1153,14 @@
       </c>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="26"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D31" s="56"/>
+      <c r="D31" s="46"/>
       <c r="E31" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -1182,14 +1171,14 @@
       </c>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="26"/>
       <c r="B32" s="30"/>
       <c r="C32" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D32" s="56"/>
+      <c r="D32" s="46"/>
       <c r="E32" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -1200,14 +1189,14 @@
       </c>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="26"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D33" s="56"/>
+      <c r="D33" s="46"/>
       <c r="E33" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -1218,14 +1207,14 @@
       </c>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="26"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D34" s="56"/>
+      <c r="D34" s="46"/>
       <c r="E34" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -1236,14 +1225,14 @@
       </c>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="26"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D35" s="56"/>
+      <c r="D35" s="46"/>
       <c r="E35" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -1254,14 +1243,14 @@
       </c>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="26"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D36" s="56"/>
+      <c r="D36" s="46"/>
       <c r="E36" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -1272,14 +1261,14 @@
       </c>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="26"/>
       <c r="B37" s="30"/>
       <c r="C37" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D37" s="56"/>
+      <c r="D37" s="46"/>
       <c r="E37" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -1290,14 +1279,14 @@
       </c>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="26"/>
       <c r="B38" s="30"/>
       <c r="C38" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D38" s="56"/>
+      <c r="D38" s="46"/>
       <c r="E38" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -1308,14 +1297,14 @@
       </c>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="26"/>
       <c r="B39" s="30"/>
       <c r="C39" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D39" s="56"/>
+      <c r="D39" s="46"/>
       <c r="E39" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -1326,14 +1315,14 @@
       </c>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="26"/>
       <c r="B40" s="30"/>
       <c r="C40" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D40" s="56"/>
+      <c r="D40" s="46"/>
       <c r="E40" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -1344,14 +1333,14 @@
       </c>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="26"/>
       <c r="B41" s="30"/>
       <c r="C41" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D41" s="56"/>
+      <c r="D41" s="46"/>
       <c r="E41" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -1362,14 +1351,14 @@
       </c>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="26"/>
       <c r="B42" s="30"/>
       <c r="C42" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D42" s="56"/>
+      <c r="D42" s="46"/>
       <c r="E42" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -1380,14 +1369,14 @@
       </c>
       <c r="H42" s="15"/>
     </row>
-    <row r="43" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="26"/>
       <c r="B43" s="30"/>
       <c r="C43" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D43" s="56"/>
+      <c r="D43" s="46"/>
       <c r="E43" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -1398,14 +1387,14 @@
       </c>
       <c r="H43" s="15"/>
     </row>
-    <row r="44" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="26"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D44" s="56"/>
+      <c r="D44" s="46"/>
       <c r="E44" s="30" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -1416,7 +1405,7 @@
       </c>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="19"/>
       <c r="B45" s="22"/>
       <c r="C45" s="22"/>
@@ -1425,25 +1414,25 @@
       <c r="F45" s="22"/>
       <c r="H45" s="15"/>
     </row>
-    <row r="46" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="49"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-    </row>
-    <row r="47" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B46" s="50"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+    </row>
+    <row r="47" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="21"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-    </row>
-    <row r="48" spans="1:8" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B47" s="50"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+    </row>
+    <row r="48" spans="1:8" s="13" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="11"/>
       <c r="C48" s="12"/>
@@ -1451,25 +1440,23 @@
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
     </row>
-    <row r="49" spans="1:6" s="7" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="48" t="s">
+    <row r="49" spans="1:6" s="7" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="49"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="49"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49"/>
+      <c r="F51" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="10">
